--- a/test/templates/test-insert-images_in_cell.xlsx
+++ b/test/templates/test-insert-images_in_cell.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd2701\Documents\PROJECTS\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C44AB96-2D8F-4F8E-9B9C-686C7B61E2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4662FB6D-95A0-4B51-90CF-2933D30F0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="init_rels" sheetId="5" r:id="rId1"/>
+    <sheet name="table_image_in_cell" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>${imageincell:imgB64}</t>
+  </si>
+  <si>
+    <t>${table:imgArray.filename:imageincell}</t>
+  </si>
+  <si>
+    <t>${someText}</t>
   </si>
 </sst>
 </file>
@@ -169,11 +176,11 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -186,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55AD12-649B-4C2F-9DF3-E27C396ED218}">
   <dimension ref="B3:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,61 +511,61 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -568,4 +575,27 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247AE2B-9614-4397-A03E-E25913231FE2}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>